--- a/data/event_es.xlsx
+++ b/data/event_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ESP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D1DA12-5937-4F6B-93C3-1ED094EAA35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C617F1E-F638-4BF8-AC45-65E21D1B8C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2985" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>what</t>
   </si>
@@ -43,35 +43,38 @@
     <t>Presidente del Comité Científico</t>
   </si>
   <si>
+    <t>1er Congreso Internacional Virtual ISEP</t>
+  </si>
+  <si>
+    <t>Nov. 25 ‑ 28, 2020</t>
+  </si>
+  <si>
+    <t>May. 5 - 7, 2020</t>
+  </si>
+  <si>
+    <t>Universidad El Bosque y Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>CIVN2020 - Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19</t>
+  </si>
+  <si>
+    <t>\href{http://doi.org/10.17605/OSF.IO/5BWNX}{Memorias}</t>
+  </si>
+  <si>
+    <t>\href{https://www.youtube.com/@onlineinternationalcongres6942}{Canal de YouTube} (Todo el congreso disponible)</t>
+  </si>
+  <si>
+    <t>\href{https://www.isep.es/congreso2020/\#comite}{Comité Científico}</t>
+  </si>
+  <si>
     <t>Miembro del Comité Científico</t>
-  </si>
-  <si>
-    <t>1er Congreso Internacional Virtual ISEP</t>
-  </si>
-  <si>
-    <t>Nov. 25 ‑ 28, 2020</t>
-  </si>
-  <si>
-    <t>May. 5 - 7, 2020</t>
-  </si>
-  <si>
-    <t>https://www.isep.es/congreso2020/#comite</t>
-  </si>
-  <si>
-    <t>Universidad El Bosque y Universidad de los Andes</t>
-  </si>
-  <si>
-    <t>CIVN2020 - Congreso Internacional de Neurociencias: Cerebro y Comportamiento en Tiempos de COVID-19</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.17605/OSF.IO/5BWNX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +213,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,12 +566,20 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,68 +948,166 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.85546875" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" location="comite" xr:uid="{E618DBC4-ADE3-4D1E-B1D8-C3B3627F7F76}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>